--- a/Datos/BRECHAS_ING/Brechas_Ingresos_Region_6.xlsx
+++ b/Datos/BRECHAS_ING/Brechas_Ingresos_Region_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\sfarias\Documents\Curso Python\.vscode\dashboard-indicadores\Datos\BRECHAS_ING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB83965-66E6-45DE-A94D-599D7A5880C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCB5049-FBB8-449D-9AF6-CC2C90E0E13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,10 @@
     <t>Region de Libertador General Bernardo O'Higgins</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
   </si>
 </sst>
 </file>
@@ -539,11 +539,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD70"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -594,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>911218.5</v>
@@ -623,7 +626,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>669745.5</v>
@@ -652,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>674988.375</v>
@@ -681,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>564586.1875</v>
@@ -710,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>756378.9375</v>
@@ -739,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>591890.875</v>
@@ -768,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8">
         <v>631978.25</v>
@@ -797,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>514332.40625</v>
@@ -826,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10">
         <v>725446.1875</v>
@@ -855,7 +858,7 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11">
         <v>571818.875</v>
@@ -884,7 +887,7 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H12">
         <v>702321.5</v>
@@ -913,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13">
         <v>568486.875</v>
@@ -942,7 +945,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14">
         <v>538048.375</v>
@@ -971,7 +974,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15">
         <v>513610.90625</v>
@@ -1000,7 +1003,7 @@
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16">
         <v>1359636.125</v>
@@ -1029,7 +1032,7 @@
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17">
         <v>944810.125</v>
@@ -1058,7 +1061,7 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18">
         <v>555130.0625</v>
@@ -1087,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19">
         <v>505062.78125</v>
@@ -1116,7 +1119,7 @@
         <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H20">
         <v>651701.6875</v>
@@ -1145,7 +1148,7 @@
         <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21">
         <v>520896.375</v>
@@ -1174,7 +1177,7 @@
         <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22">
         <v>734290.5</v>
@@ -1203,7 +1206,7 @@
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23">
         <v>592754.5625</v>
@@ -1232,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24">
         <v>580781.125</v>
@@ -1261,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25">
         <v>537373.25</v>
@@ -1290,7 +1293,7 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26">
         <v>538735.5625</v>
@@ -1319,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27">
         <v>491166.28125</v>
@@ -1348,7 +1351,7 @@
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28">
         <v>565633.75</v>
@@ -1377,7 +1380,7 @@
         <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29">
         <v>521554.5</v>
@@ -1406,7 +1409,7 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30">
         <v>623455.1875</v>
@@ -1435,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31">
         <v>538775.375</v>
@@ -1464,7 +1467,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32">
         <v>682576</v>
@@ -1493,7 +1496,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33">
         <v>555521.75</v>
@@ -1522,7 +1525,7 @@
         <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34">
         <v>628612.5</v>
@@ -1551,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H35">
         <v>565740.625</v>
@@ -1580,7 +1583,7 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36">
         <v>607691.625</v>
@@ -1609,7 +1612,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37">
         <v>585027</v>
@@ -1638,7 +1641,7 @@
         <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38">
         <v>570774.4375</v>
@@ -1667,7 +1670,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39">
         <v>589881.375</v>
@@ -1696,7 +1699,7 @@
         <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40">
         <v>564261.6875</v>
@@ -1725,7 +1728,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41">
         <v>550420.5</v>
@@ -1754,7 +1757,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42">
         <v>584823.9375</v>
@@ -1783,7 +1786,7 @@
         <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43">
         <v>548213</v>
@@ -1812,7 +1815,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44">
         <v>613892.9375</v>
@@ -1841,7 +1844,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H45">
         <v>616661.0625</v>
@@ -1870,7 +1873,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46">
         <v>448996.875</v>
@@ -1899,7 +1902,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47">
         <v>515477.4375</v>
@@ -1928,7 +1931,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48">
         <v>696243</v>
@@ -1957,7 +1960,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H49">
         <v>592074.5625</v>
@@ -1986,7 +1989,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50">
         <v>486514.28125</v>
@@ -2015,7 +2018,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H51">
         <v>458944.625</v>
@@ -2044,7 +2047,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H52">
         <v>532076.375</v>
@@ -2073,7 +2076,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H53">
         <v>480127.25</v>
@@ -2102,7 +2105,7 @@
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54">
         <v>468137.71875</v>
@@ -2131,7 +2134,7 @@
         <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55">
         <v>496842.75</v>
@@ -2160,7 +2163,7 @@
         <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56">
         <v>545233.6875</v>
@@ -2189,7 +2192,7 @@
         <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57">
         <v>492425.125</v>
@@ -2218,7 +2221,7 @@
         <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58">
         <v>524020.78125</v>
@@ -2247,7 +2250,7 @@
         <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H59">
         <v>470767.4375</v>
@@ -2276,7 +2279,7 @@
         <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H60">
         <v>558997.5</v>
@@ -2305,7 +2308,7 @@
         <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H61">
         <v>537643.875</v>
@@ -2334,7 +2337,7 @@
         <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H62">
         <v>551763.875</v>
@@ -2363,7 +2366,7 @@
         <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H63">
         <v>494140.34375</v>
@@ -2392,7 +2395,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H64">
         <v>510948.875</v>
@@ -2421,7 +2424,7 @@
         <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H65">
         <v>541198.125</v>
@@ -2450,7 +2453,7 @@
         <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66">
         <v>605904.375</v>
@@ -2479,7 +2482,7 @@
         <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H67">
         <v>590943</v>
@@ -2499,7 +2502,7 @@
         <v>47</v>
       </c>
       <c r="G68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H68">
         <v>740884.8125</v>
@@ -2519,7 +2522,7 @@
         <v>47</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H69">
         <v>602742.0625</v>
@@ -2539,7 +2542,7 @@
         <v>10</v>
       </c>
       <c r="G70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H70">
         <v>864177.4375</v>
@@ -2559,7 +2562,7 @@
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H71">
         <v>740526.3125</v>
